--- a/resources/viseca_homepage/QA.xlsx
+++ b/resources/viseca_homepage/QA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\smartsearch\resources\viseca_homepage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\gptsearch\resources\viseca_homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877F67DE-32D2-474F-849A-696AC33C311B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913792A9-0F3A-4C24-B2B6-C0A3D1B36475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="2040" windowWidth="22065" windowHeight="10035" xr2:uid="{C49F95ED-7AA7-47FE-82D4-C510FE5B6665}"/>
   </bookViews>
@@ -202,13 +202,13 @@
     <t>references</t>
   </si>
   <si>
-    <t>german</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +593,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>49</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -650,7 +650,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -755,7 +755,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -772,7 +772,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -789,7 +789,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -806,7 +806,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
@@ -823,7 +823,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -840,7 +840,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>21</v>
@@ -860,7 +860,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>21</v>
@@ -877,7 +877,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>21</v>
@@ -894,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>21</v>
@@ -911,7 +911,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>36</v>
@@ -928,7 +928,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>36</v>
@@ -945,7 +945,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>36</v>
@@ -962,7 +962,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>36</v>
@@ -979,7 +979,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>36</v>

--- a/resources/viseca_homepage/QA.xlsx
+++ b/resources/viseca_homepage/QA.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\gptsearch\resources\viseca_homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913792A9-0F3A-4C24-B2B6-C0A3D1B36475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09C9422-E554-4618-8D45-6138664C3108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="2040" windowWidth="22065" windowHeight="10035" xr2:uid="{C49F95ED-7AA7-47FE-82D4-C510FE5B6665}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C49F95ED-7AA7-47FE-82D4-C510FE5B6665}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$236</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="533">
   <si>
     <t>Bargeldbezug</t>
   </si>
@@ -210,12 +213,1621 @@
   <si>
     <t>en</t>
   </si>
+  <si>
+    <t>Card application</t>
+  </si>
+  <si>
+    <t>Where can I apply for a credit card, pre-paid card, Mastercard Flex or Debit Mastercard?</t>
+  </si>
+  <si>
+    <t>You can apply for your card online using the PDF form or you can order the card application from Viseca or your bank.</t>
+  </si>
+  <si>
+    <t>Overview of cards for private customers::
+https://www.viseca.ch/en/credit-card
+**
+Overview of cards for business customers::
+https://www.viseca.ch/en/business/credit-card</t>
+  </si>
+  <si>
+    <t>How long does it take to process my card application?</t>
+  </si>
+  <si>
+    <t>Normally 10 to 15 working days, assuming all the necessary documents and ID copies have been provided.</t>
+  </si>
+  <si>
+    <t>How can I apply for an additional card?</t>
+  </si>
+  <si>
+    <t>Additional card</t>
+  </si>
+  <si>
+    <t>Depending on the product, you can apply for between one and nine additional cards – either for yourself or a family member. To see detailed information and to make a card application, please refer to the card overview.</t>
+  </si>
+  <si>
+    <t>Card overview::
+https://www.viseca.ch/en/credit-card</t>
+  </si>
+  <si>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>When is the annual fee debited?</t>
+  </si>
+  <si>
+    <t>The annual fee is debited in the month that appears on the card, e.g. if the card expires in “04/19” (month/year), the annual fee will be debited in April to cover the following 12 months.</t>
+  </si>
+  <si>
+    <t>Why do I have to pay a fee if I receive hard-copy invoices by post?</t>
+  </si>
+  <si>
+    <t>Viseca Card Services SA wishes to make more use of electronic delivery methods (via "one"). Free electronic billing enables cardholders to play an important role in promoting a sustainable approach to natural resources.</t>
+  </si>
+  <si>
+    <t>What alternatives are available to me if I don’t want to pay the fee for receiving paper bills by post?</t>
+  </si>
+  <si>
+    <t>The fee for mailing paper bills can be avoided by registering for “one” free of charge and activating the paperless statements function.
+You can also sign up for e-billing via your online banking portal, provided your bank offers this service.</t>
+  </si>
+  <si>
+    <t>How are processing fees shown on invoices in connection with foreign currency transactions and transactions abroad?</t>
+  </si>
+  <si>
+    <t>In relation to a foreign currency transaction or a transaction abroad in Swiss francs, the relevant processing fee is shown separately on the monthly invoice along with the exchange rate and the fee amount expressed as a percentage.</t>
+  </si>
+  <si>
+    <t>What is a “foreign acceptance point”?</t>
+  </si>
+  <si>
+    <t>Sales outlets abroad (e.g. retail stores) and online shops (e.g. mail order suppliers, Internet sellers) run by vendors based abroad are regarded as foreign points of sale. Please consult the vendor’s general terms and conditions for information on where that vendor is based.</t>
+  </si>
+  <si>
+    <t>Why should I use my credit card abroad rather than cash, despite processing fees?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any customer who possesses a card from Viseca Card Services SA can make cashless payments at over 43 million locations worldwide. If your card is lost or stolen, it will be replaced – unlike cash. Cardholders can take advantage of attractive additional services such as a high-quality insurance package, “one” digital service, a payment-by-instalments option and the surprize rewards programme. Cardholders who fulfil their duty of care are not liable for financial damages. For foreign currency transactions with the card, Viseca Card Services SA applies an exchange rate that is more favourable than the banknote rate used for cash transactions.
+</t>
+  </si>
+  <si>
+    <t>What is a “transaction abroad in Swiss francs”?</t>
+  </si>
+  <si>
+    <t>Any transaction paid for in Swiss francs using a card in Swiss francs from a foreign acceptance point is regarded as a transaction abroad in Swiss francs. This can either be a transaction abroad involving a direct currency conversion into Swiss francs or a transaction in Swiss francs on a foreign website (online or app purchases).</t>
+  </si>
+  <si>
+    <t>When I make an online purchase, how can I see whether the vendor is based abroad?</t>
+  </si>
+  <si>
+    <t>Many Internet vendors give the visual impression that they are based in Switzerland (e.g. “.ch” domain). Check whether online shops with the “.ch” domain belong to companies based in Switzerland. Please consult the vendor’s general terms and conditions for information on where that vendor is based.</t>
+  </si>
+  <si>
+    <t>What is the gaming commission?</t>
+  </si>
+  <si>
+    <t>The gaming commission is charged for transactions that can be considered gambling (lottery, gambling and casino transactions, excl. Swisslos/Loterie Romande).</t>
+  </si>
+  <si>
+    <t>Where will I find the fee schedule?</t>
+  </si>
+  <si>
+    <t>You will find the fee schedule under Downloads.</t>
+  </si>
+  <si>
+    <t>Downloads::
+https://www.viseca.ch/en/customer-service/downloads</t>
+  </si>
+  <si>
+    <t>Card number &amp; validity</t>
+  </si>
+  <si>
+    <t>What is the CVC/CVV code?</t>
+  </si>
+  <si>
+    <t>The CVC/CVV code is a card verification number. Every payment card has one. The purpose of this verification number is to combat the fraudulent use of forged or stolen card details in online transactions. The CVC/CVV code is a three-digit number combination that is printed (not embossed) on the back of the card. It can only be verified by the card issuer, because it is not mathematically related to the card number in any way. In connection with online transactions, but also for reservations (hotel, car hire etc.) that you make either online or by phone, the service provider may require you to provide this code in order to process payment via your card.</t>
+  </si>
+  <si>
+    <t>The card number has 16 digits and is on the front of your credit card or prepaid card. The 3-digit CVC/CVV security code can be found on the reverse side of the card or you can look it up in the “one” app.</t>
+  </si>
+  <si>
+    <t>Different fees are incurred depending on the card, card services and card use.</t>
+  </si>
+  <si>
+    <t>You can apply for your card online or in writing using the PDF form.</t>
+  </si>
+  <si>
+    <t>An additional card allows you to have more than one card under the same credit card account. Besides being personalised and non-transferable, every card has its own card number and PIN code. Invoices display main and additional card expenses separately. The main and additional card(s) are subject to the same rewards scheme, with a cumulative limit applying across all cards under the same account.</t>
+  </si>
+  <si>
+    <t>Winnings from gambling</t>
+  </si>
+  <si>
+    <t>I won at gambling. Can I have the winnings paid out to my credit card?</t>
+  </si>
+  <si>
+    <t>If you won with a domestic provider, it is possible to have the winnings paid out to your credit card.
+The following applies with regard to foreign gambling providers: customers with a Visa card can have their winnings paid out to their credit card. For Mastercard customers, this option has no longer existed since August 2022.</t>
+  </si>
+  <si>
+    <t>I won on a gambling platform abroad and would like to have the winnings paid out to my Mastercard. Why is this not possible?</t>
+  </si>
+  <si>
+    <t>Mastercard revised its standards in 2022. It is no longer possible to have winnings from abroad paid out in Switzerland. Contact the foreign gambling provider (trader) directly to find a suitable alternative.</t>
+  </si>
+  <si>
+    <t>Contactless payment</t>
+  </si>
+  <si>
+    <t>That annoying search for change is now a thing of the past. You can pay smaller amounts within seconds thanks to the contactless function on your Viseca credit card/prepaid card. Simply hold the card closely to the payment terminal and wait until a green light illuminates and an acoustic signal sounds – then you’re good to go. You no longer need to enter your PIN code or provide your signature. Contactless payments are just as secure as normal credit card payments.</t>
+  </si>
+  <si>
+    <t>What does contactless payment mean?</t>
+  </si>
+  <si>
+    <t>When making a contactless payment, you hold your card just a few centimetres away from a payment terminal that has the contactless feature enabled. You neither have to insert the card into the terminal, nor do you have to touch the terminal. Wireless technology (near-field communication/NFC) enables the relevant payment data to be transmitted in encrypted form.</t>
+  </si>
+  <si>
+    <t>Do I have to enter my PIN code when making a contactless card payment?</t>
+  </si>
+  <si>
+    <t>"In Switzerland: You do not need to enter your PIN code for amounts under CHF 80. For amounts of CHF 80 or more, you will have to enter your PIN code or provide your signature. Please note what it says on the display.
+Abroad: You do need to enter your PIN code for small amounts. The threshold varies from country to country. In the EU, for example, you do not need to enter your PIN code for amounts under EUR 25."</t>
+  </si>
+  <si>
+    <t>How do I tell whether my card offers the contactless facility?</t>
+  </si>
+  <si>
+    <t>If your card has the contactless symbol, you can use it for contactless payments immediately without the need for you to sign up for it.</t>
+  </si>
+  <si>
+    <t>How do I tell whether a payment terminal offers the contactless facility?</t>
+  </si>
+  <si>
+    <t>Payment terminals showing the contactless symbol</t>
+  </si>
+  <si>
+    <t>Is there a maximum number of contactless payments that I can make?</t>
+  </si>
+  <si>
+    <t>No, you can make as many contactless payments as you wish.</t>
+  </si>
+  <si>
+    <t>What is the difference between a card with the contactless function and a card without the contactless function?</t>
+  </si>
+  <si>
+    <t>A card with the contactless function enables you to benefit from all the advantages of a normal card while making contactless payments at the same time. Simply hold your card against the contactless symbol (situated on the display or on the side of the payment terminal) for a few seconds, and your payment will be confirmed. You do not have enter your PIN or provide your signature for amounts under CHF 80.</t>
+  </si>
+  <si>
+    <t>What advantages does the contactless function on my card offer me?</t>
+  </si>
+  <si>
+    <t>Simple
+Pay with just one hand movement. If your card and the payment terminal both have the contactless symbol, it means that you can make a contactless payment.
+Secure
+Maximum security thanks to the dynamic encryption of transmitted data. You do not let go of your card – it remains in your hand while you make the payment. Only one payment transaction is possible per purchase, even if you hold your card against the payment terminal more than once in succession. For amounts of CHF 80 or more, you must also enter your PIN or provide your signature. Cardholders who fulfil their duty of care are not liable for financial damages.
+Quick
+Paying without entering your PIN takes only a few seconds. No need to search for coins or notes anymore. No waiting for change.</t>
+  </si>
+  <si>
+    <t>How secure is a contactless payment?</t>
+  </si>
+  <si>
+    <t>Making a contactless payment is just as secure as making a card payment without the contactless facility:
+- Your card remains in your hand while you make the payment.
+- To make a payment, you must hold your card a few centimetres (less than 4 cm) away from the payment terminal.
+- It is only possible to effect one payment transaction per purchase.
+- No personal data is transmitted (e.g. name of cardholder).
+- Contactless payments without authentication are only possible for amounts up to CHF 80. Payments over CHF 80 automatically involve authentication, i.e. the cardholder must enter their PIN code or provide their signature.
+- As in the case of cards without the contactless function, the merchant must first enable the payment. This prevents any unwanted payment.</t>
+  </si>
+  <si>
+    <t>Does the contactless payment method guarantee complete protection against fraud?</t>
+  </si>
+  <si>
+    <t>s in the case of other forms of payment, it is not possible to guarantee complete protection against fraud. However, if you fulfil your duty of care as a cardholder, Viseca will cover any damages arising from the fraudulent use of your card by third parties.
+- Your duty of care as a cardholder essentially consists of the following:
+- Checking your invoices and informing us in writing of any discrepancies within 30 days.
+- Keeping your PIN secret (not writing it down or disclosing it to third parties).
+- Keeping your card in a safe place.
+- Instructing Viseca to block your card immediately if it becomes lost.</t>
+  </si>
+  <si>
+    <t>Is it possible for data to be intercepted when I make a contactless payment?</t>
+  </si>
+  <si>
+    <t>No. The security technology integrated into the card chip means that this is not possible. For every payment, the card generates a unique cryptogram (based on the secret cryptographic key on the transaction counter chip card and a number randomly generated by the terminal) for the purpose of validating the data. Further information on data protection is available here.</t>
+  </si>
+  <si>
+    <t>Data protection::
+https://www.viseca.ch/en/data-protection</t>
+  </si>
+  <si>
+    <t>How does a contactless payment work?</t>
+  </si>
+  <si>
+    <t>It works just like a normal card payment. However, your card does not have to be inserted into the payment terminal. You will see the amount payable on the payment terminal display. Hold your card a few centimetres (less than 4 cm) away from the contactless symbol located either on the display or on the side of the payment terminal. An acoustic and/or visual signal will confirm the payment within a few seconds – and then you’re good to go.</t>
+  </si>
+  <si>
+    <t>What is the maximum distance I can hold my card away from the payment terminal when making a contactless payment?</t>
+  </si>
+  <si>
+    <t>To enable communication between the payment terminal and your card in encrypted form, you must hold your card no more than four centimetres away from the terminal’s contactless payment reader. This will also prevent the payment amount being incorrectly debited to any other card that happens to be in the vicinity.</t>
+  </si>
+  <si>
+    <t>Foreign currency</t>
+  </si>
+  <si>
+    <t>With your credit card/prepaid card, you always have the right currency to hand. Transactions in foreign currency are converted into the card currency. A processing fee is also charged. This fee varies depending on the card. For details, see the fee schedule.</t>
+  </si>
+  <si>
+    <t>What is a foreign currency transaction?</t>
+  </si>
+  <si>
+    <t>Any transaction that is not settled in the card currency is referred to as a foreign currency transaction.</t>
+  </si>
+  <si>
+    <t>Where do I find currency conversion details?</t>
+  </si>
+  <si>
+    <t>For every foreign currency transaction, the exchange rate, conversion date and processing fee are stated on the monthly bill and in “one”.
+The processing fee varies depending on the card. For details, see the summary of fees.</t>
+  </si>
+  <si>
+    <t>What exchange rate will Viseca Card Services SA use when converting from a foreign currency?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The exchange rates are set daily by Viseca Card Services SA and fixed once daily at the same time of day. When setting the exchange rate it takes the usual market sources as a guide. The exchange rate that Viseca Card Services SA sets for foreign currency transactions is more favourable than the banknote rate used for exchanging cash into foreign currency.
+</t>
+  </si>
+  <si>
+    <t>What date is relevant for the conversion of transactions in a foreign currency?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The relevant date is the date that the card organisation (Mastercard/Visa) uses for the conversion of foreign currencies. This conversion date can be found on your monthly bill.
+</t>
+  </si>
+  <si>
+    <t>What fees apply to foreign currency transactions?</t>
+  </si>
+  <si>
+    <t>Any payment in a foreign currency (i.e. currency other than the card currency) incurs a processing fee. The fee schedule provides an overview of the fees that are payable.</t>
+  </si>
+  <si>
+    <t>Acceptance points</t>
+  </si>
+  <si>
+    <t>Your card allows you to make cashless payments worldwide at over 43 million points of sale. Depending on the acceptance point, you confirm your payment with your signature, your PIN code or on a contactless basis.</t>
+  </si>
+  <si>
+    <t>What are points of sale and how are they identified?</t>
+  </si>
+  <si>
+    <t>What are points of sale and how are they identified? Points of sale or contractual partners are any type of business or operator, e.g. department store, shop, petrol station or car park, at which you pay for goods or services with your card. The Mastercard and Visa logos normally indicate that your card will be accepted.</t>
+  </si>
+  <si>
+    <t>PIN-Code</t>
+  </si>
+  <si>
+    <t>Your PIN code is a four- to six-digit identification number that is required instead of your signature when paying at terminals. Your PIN code is known only to you and must be treated confidentially. You must not write it down nor disclose it to anyone – either on the phone, in writing or when shopping online.</t>
+  </si>
+  <si>
+    <t>Can I change my PIN code?</t>
+  </si>
+  <si>
+    <t>You can change your PIN code at any time at any ATM in Switzerland (except Postomats). Avoid choosing numerical combinations that are easy to guess, e.g. dates of birth, phone numbers or car registrations. Keep your PIN code secret and never write it down, even in encrypted form.</t>
+  </si>
+  <si>
+    <t>I do not know the PIN code for my card. What can I do?</t>
+  </si>
+  <si>
+    <t>You can look up the PIN code in the “one” app or order it from Customer Service by phone.</t>
+  </si>
+  <si>
+    <t>What must I bear in mind when making payments with my PIN code?</t>
+  </si>
+  <si>
+    <t>Memorise your PIN code and never write it down. Choose a numerical combination that is not easy to guess. Always cover your PIN code when you enter it, and never disclose it to third parties. In the event of theft or loss, have your card blocked immediately (24-hour card blocking service, phone +41 58 958 83 83). If you own a prepaid card, please call +41 900 773 729 (CHF 1 per call).</t>
+  </si>
+  <si>
+    <t>Why can I no longer pay with my signature?</t>
+  </si>
+  <si>
+    <t>Payment terminals increasingly require you to enter your PIN code instead of providing your signature. It is therefore important that you know your PIN code and can enter it when requested, because your payments cannot be processed otherwise. Paying by PIN code is quicker, more convenient and more secure. Further information about card security</t>
+  </si>
+  <si>
+    <t>What must I bear in mind when I am abroad?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you have a six-digit PIN code: 
+ATMs in some countries only accept four-digit PINs, in which case transactions will normally work if you enter the first four digits of your six-digit PIN. If entering the first four digits of your PIN does not work, please try a different ATM or go to a bank counter.
+If you have a four-digit PIN code: 
+ATMs in some countries only accept six-digit PINs, in which case transactions will normally work if you enter your four-digit PIN. Under no circumstances should you add random digits to your four-digit PIN to create a six-digit PIN, as this will result in the wrong PIN being entered. If entering your four-digit PIN does not work, please try a different ATM or go to a bank counter. </t>
+  </si>
+  <si>
+    <t>Security while travelling::
+https://www.viseca.ch/en/services/security/using-credit-card</t>
+  </si>
+  <si>
+    <t>MoneySend</t>
+  </si>
+  <si>
+    <t>Mastercard MoneySend makes it possible to credit a Mastercard account (for a credit, debit or prepaid card) via the existing payments system infrastructure.</t>
+  </si>
+  <si>
+    <t>Can I send payments with my Viseca card via the MoneySend service?</t>
+  </si>
+  <si>
+    <t>Mastercard cards issued by Viseca can receive such payments, but sending them is not yet possible.</t>
+  </si>
+  <si>
+    <t>What are the charges for receiving money via the MoneySend service?</t>
+  </si>
+  <si>
+    <t>Receiving payments on a Mastercard card account is totally free of charge. There is no fee for the recipient.</t>
+  </si>
+  <si>
+    <t>What are the charges for sending money the MoneySend service?</t>
+  </si>
+  <si>
+    <t>The charges for the sender depend on the service provider or the company that issued the sender's card.</t>
+  </si>
+  <si>
+    <t>What function does MoneySend serve at present?</t>
+  </si>
+  <si>
+    <t>Own design</t>
+  </si>
+  <si>
+    <t>Silver business cardholders can design their own card online, using a picture and logo of their choice.</t>
+  </si>
+  <si>
+    <t>Business travel cards</t>
+  </si>
+  <si>
+    <t>Corporate cardholders can apply for one or more business travel cards. A business travel card allows you to pay for your employees’ travel costs. The card is non-personalised and kept with the applicable travel agent. All costs such as air tickets, hotel stays, etc. are booked via the business travel card, meaning that you always have an up-to-date, detailed overview of your expenses. All expenditure on the business travel card goes towards the company bonus.</t>
+  </si>
+  <si>
+    <t>Purchasing cards</t>
+  </si>
+  <si>
+    <t>Corporate cardholders can apply for one or more purchasing cards. With a purchasing card, you can pay for products and services that you order online, by phone or in writing. Purchasing cards are non-personalised and can be used by several specially authorised members of staff. The number of the purchasing card being used is simply communicated to the supplier. All expenditure on the purchasing card goes towards the company bonus.</t>
+  </si>
+  <si>
+    <t>Loss of card</t>
+  </si>
+  <si>
+    <t>If your card is lost or stolen, block the card directly in the “one” app or call our cancellation centre (24/7) on +41 58 958 83 83. It is possible to block your card only temporarily. If the card is permanently blocked, you will be issued a replacement card. If you require emergency cash, you should contact our customer service.</t>
+  </si>
+  <si>
+    <t>If a card is blocked, it it possible to lift the block?</t>
+  </si>
+  <si>
+    <t>No, it is not possible to lift blocks on cards.</t>
+  </si>
+  <si>
+    <t>How much does it cost to block a card?</t>
+  </si>
+  <si>
+    <t>Blocking costs vary according to the card product. Blocking a credit or prepaid card is either free or costs a maximum of CHF 10, depending on the card product. The replacement card is either free or costs a maximum of CHF 20, depending on the card product.
+The blocking and replacement card fees for Mastercard Flex and Debit Mastercard are given in your bank’s schedule of fees or may be found at flexcard.ch.</t>
+  </si>
+  <si>
+    <t>Fee schedule for credit and prepaid cards::
+https://www.viseca.ch/en/general-en/gebuhrenubersicht-privatkunden
+**
+Fee schedule for commercial cards::
+https://www.viseca.ch/en/general-en/gebuhrenubersicht-geschaftskunden</t>
+  </si>
+  <si>
+    <t>Replacement card</t>
+  </si>
+  <si>
+    <t>How long does it take for me to receive a replacement card depending on whether I am in Switzerland or abroad?</t>
+  </si>
+  <si>
+    <t>You normally receive a replacement card within two working days if you are in Switzerland, and within three to six working days if you are abroad. To deliver abroad, we need the exact address of your whereabouts as well as a phone number that our courier can contact you on. The address has to be valid for at least the following six working days.</t>
+  </si>
+  <si>
+    <t>How do I apply for a replacement card?</t>
+  </si>
+  <si>
+    <t>Via Viseca customer service or, in the event of theft or loss, via the 24-hour card blocking service.
+Customer service: phone +41 58 958 84 00, fax +41 58 958 88 85
+24-hour card blocking service: phone +41 58 958 83 83, fax +41 58 958 83 30
+For prepaid card(s): phone +41 900 773 729 (CHF 1 per call)</t>
+  </si>
+  <si>
+    <t>How much does a replacement card cost?</t>
+  </si>
+  <si>
+    <t>For credit and prepaid cards, a replacement card is either free or costs a maximum of CHF 20, depending on the card product. For details, see the fee schedule. Your Securicard/Securicard plus insurance will partly cover the costs. You can sign up for Securicard or Securicard plus insurance via the registration form.
+The replacement card fees for Mastercard Flex and Debit Mastercard are given in your bank’s schedule of fees or may be found at flexcard.ch.</t>
+  </si>
+  <si>
+    <t>My card is damaged. What can I do?</t>
+  </si>
+  <si>
+    <t>Order a replacement card directly in the “one” app or call our customer service. You can continue using the damaged card to make online transactions and mobile payments. The card number and PIN code for the replacement code remain the same.</t>
+  </si>
+  <si>
+    <t>3-D Secure</t>
+  </si>
+  <si>
+    <t>3-D Secure is an internationally recognised safety standard for online card payments. Our smartphone app offers you a convenient means of checking and confirming your transactions when shopping online. In order to use your Viseca credit, debit or prepaid card wherever you choose online, you must register your card for "one" using the registration code. The existing password authentication procedure will no longer be accepted in future.</t>
+  </si>
+  <si>
+    <t>How does 3-D Secure work for online payments?</t>
+  </si>
+  <si>
+    <t>Many online-Shops in Switzerland and abroad use 3-D Secure. The Visa Secure and Mastercard® Identity Check™ logos will indicate whether an online shop offers 3-D Secure. Whenever you make a payment in an online shop offering 3-D Secure, an input mask appears in which you have to enter your personal 3-D Secure. A security message that you chose when you signed up confirms that Viseca is checking your password. If you are already logged in to "one" digital service, you can carry out the verification procedure via the "one" app or the "one" SMS code. The existing password authentication procedure will now be replaced by the "one" app or SMS code procedure. In order to continue using your credit, prepaid and business card for online payments, you will need to register for "one" digital service (3-D Secure).</t>
+  </si>
+  <si>
+    <t>Do I have to register for 3-D Secure?</t>
+  </si>
+  <si>
+    <t>You must be registered in order to purchase from online shops that apply the 3-D Secure standard. To continue to use your Viseca credit, debit or prepaid card wherever you choose online, you must register your card for “one” using the registration code.</t>
+  </si>
+  <si>
+    <t>Phising</t>
+  </si>
+  <si>
+    <t>Phishing is a fraudulent practice that criminals use to acquire confidential data. It often involves the criminal sending spoof e-mails with links to fake websites (that are only identified as such on second glance). The criminal will ask the recipients of these e-mails to disclose sensitive data such as credit card numbers or login information for protected websites like "one". This information will then be used for fraudulent purposes – normally in online purchases. If you have received a suspicious e-mail, please forward it to us at internetsecurity@viseca.ch.</t>
+  </si>
+  <si>
+    <t>What should I do if I have received a phishing e-mail?</t>
+  </si>
+  <si>
+    <t>Please forward phishing e-mails immediately and without comment to internetsecurity@viseca.ch. Viseca Card Services SA works closely with international card companies Mastercard and Visa, national authorities, and anti-phishing specialists, using every means at its disposal to combat phishing. Any specific e-mail notifications that you send us help to remove offending websites from the Internet.</t>
+  </si>
+  <si>
+    <t>How do I identify a phishing e-mail?</t>
+  </si>
+  <si>
+    <t>Such an e-mail will typically ask you to enter, confirm or verify your card details. Phishing e-mails and websites often look deceptively similar to the genuine e-mails and websites. The e-mails will usually contain links. Never click on these links. Phishing e-mails are sent randomly to both Viseca and non-Viseca customers, and are intended as a means of stealing card information. Such data breaches can never originate from Viseca Card Services SA. Phishing websites look deceptively similar to the original websites that they are mimicking, and phishing e-mails often request the recipient to log in using their personal details. The website addresses of phishing sites may differ only very slightly from those of their bona fide counterparts. Such differences (e.g. a letter here or there) are not always easy to spot.</t>
+  </si>
+  <si>
+    <t>Further information on fraud and data theft::
+https://www.viseca.ch/en/services/security/fraud-data-theft/</t>
+  </si>
+  <si>
+    <t>Sign your card immediately upon receipt. Cover your PIN code when you enter it, and never write it down. Never pass on your credit card, prepaid card or debit card details for information purposes. If your card is lost or stolen, call the Viseca 24-hour card blocking service immediately.</t>
+  </si>
+  <si>
+    <t>How do I protect my card and card details from fraud?</t>
+  </si>
+  <si>
+    <t>What is phishing?</t>
+  </si>
+  <si>
+    <t>Phishing is a fraudulent practice that criminals use to acquire confidential data. It often involves the criminal sending spoof e-mails with links to fake websites that are only recognisable as such on closer inspection. The intention is to trick you into entering sensitive data such as your credit, prepaid or debit card information or login details for protected areas such as “one”.</t>
+  </si>
+  <si>
+    <t>How does Viseca contact me, and what security measures are taken in this regard?</t>
+  </si>
+  <si>
+    <t>Viseca will never send any e-mails that ask you to confirm or enter personal data or credit card details (e.g. in order to lift the block on a credit card or login procedure). The only exception to this rule are e-mails that allow you to register for the surprize rewards programme or for the “one” digital service. Such e-mails will address you by your last name. However, Viseca will never include links to the websites concerned. Instead, you will always be asked to enter both website addresses in your browser manually. The links provided are for https-encrypted sites with a Viseca digital certificate. The “https” at the beginning of the URL and the padlock in the browser line indicate that the website is encrypted. Our links all belong to Swiss “.ch” domains.</t>
+  </si>
+  <si>
+    <t>What should I do if I have disclosed sensitive data (e.g. card number) as a result of a phishing e-mail?</t>
+  </si>
+  <si>
+    <t>Contact our cancellation centre immediately in order to place a block on the card in question. If you have also disclosed your “one” access data, please mention this to our staff and have your existing “one” account blocked. You can create a new account at any time. We would be grateful if you would forward the phishing e-mail to internetsecurity@viseca.ch.</t>
+  </si>
+  <si>
+    <t>How can I prevent phishing scams?</t>
+  </si>
+  <si>
+    <t>Install phishing detection software, but remain vigilant and follow the above rules.
+Beside spam filters, antivirus software and firewalls, you should always use your common sense.
+Move phishing e-mails to your spam folder once you have forwarded them to internetsecurity@viseca.ch.
+You should also refer to our additional information on this matter.</t>
+  </si>
+  <si>
+    <t>Security::
+https://www.viseca.ch/en/services/security</t>
+  </si>
+  <si>
+    <t>Online security</t>
+  </si>
+  <si>
+    <t>You can use your payment cards (credit, debit or prepaid) safely and securely for online shopping, provided you take a number of security precautions. You should also check your invoices on a regular basis.</t>
+  </si>
+  <si>
+    <t>Who is liable in the event of card fraud?</t>
+  </si>
+  <si>
+    <t>As is the case with other methods of payment, there is no such thing as total security when it comes to card fraud. However, if you fulfil your duty of care as a cardholder (e.g. immediate blocking of any stolen card), Viseca will cover any damages arising from the fraudulent use of your card by third parties.
+- Your duty of care as a cardholder essentially consists of the following:
+- Check your invoices and informing us in writing of any discrepancies within 30 days.
+- Keep your PIN secret (not writing it down or disclosing it to third parties).
+- Keep your card in a safe place.
+- Instruct Viseca to block your card immediately if it is lost.</t>
+  </si>
+  <si>
+    <t>Can I trust the vendor and the product/service?</t>
+  </si>
+  <si>
+    <t>Only use your card for purchases from vendors you trust. Indications as to whether you can trust the vendor include clear information about data encryption as well as the provider’s postal address, e-mail address, phone number and general terms and conditions. Print out your order or the merchant’s homepage, or make a note of the URL. Keep all documents in a safe place. Make sure that you shop on websites that display “https” in the URL. When you are on an “https” website, your browser will include the padlock icon in the browser toolbar. When paying online, use the 3-D Secure facility if the website allows this. When making purchases, always check the merchant’s general terms and conditions before entering your payment card information and concluding your order. Certain services often roll over automatically. You should also take into account the applicable notice periods for terminating these services.</t>
+  </si>
+  <si>
+    <t>Can I trust my computer?</t>
+  </si>
+  <si>
+    <t>Never enter sensitive data on publicly accessible computers (e.g. in internet cafés), either when placing orders or when accessing “one”. Your data may be stored via keyloggers, for example.</t>
+  </si>
+  <si>
+    <t>How do I know whether I am on the right website?</t>
+  </si>
+  <si>
+    <t>Check the URL. Wherever possible, open specific websites via the bookmarks you have made for them.</t>
+  </si>
+  <si>
+    <t>What must I bear in mind when returning products?</t>
+  </si>
+  <si>
+    <t>Keep all proof of your purchase, e.g. e-mails, postal receipts and courier receipts. You will need this documentation if you encounter any discrepancies or want your money back. If the delivered product does not correspond to your order (discrepancy, defect, incorrect delivery), you will have to prove this accordingly – involving the input of an independent, certified third party (e.g. specialist store, expert) if necessary.</t>
+  </si>
+  <si>
+    <t>Securicard / Securicard plus</t>
+  </si>
+  <si>
+    <t>Securicard is a fee-based card blocking and key retrieval service that allows you to block all your credit, debit and customer cards, including ID and SIM cards, in the event of loss or theft. Viseca cardholders benefit from special conditions.</t>
+  </si>
+  <si>
+    <t>How much does Securicard/Securicard plus cost?</t>
+  </si>
+  <si>
+    <t>Securicard Individual subscription per year: CHF 20.45; partner subscription per year: CHF 31.20 (as a partner service).
+Securicard plus Individual subscription per year: CHF 44.35; partner subscription per year: CHF 71.
+All prices include VAT and stamp duty. The Securicard General Terms and Conditions apply with regard to insurance benefits.</t>
+  </si>
+  <si>
+    <t>How high is the maximum refund?</t>
+  </si>
+  <si>
+    <t>Securicard Up to CHF 175 per claim
+Securicard plus Up to CHF 8,200 per claim</t>
+  </si>
+  <si>
+    <t>What benefits does Securicard/Securicard plus offer?</t>
+  </si>
+  <si>
+    <t>Securicard/Securicard plus is a card blocking and key retrieval service consisting of the following benefits:
+Securicard
+- 24-hour card blocking service: +41 844 834 824
+- Reimbursement of expenses for replacement cards
+- After the loss is reported, Securicard assumes the full risk until the moment it gives instructions to block the card
+- Key retrieval service
+- Cost refund of up to CHF 175 per claim
+- Additional Securicard plus refund
+- Misuse of credit, debit and customer cards
+- Misuse of SIM card
+- Key theft
+- Theft of cash in Switzerland and abroad
+- Theft of handbag/wallet
+- Contents of handbag/wallet
+- Cost refund of up to CHF 8,200 per claim</t>
+  </si>
+  <si>
+    <t>eXpense</t>
+  </si>
+  <si>
+    <t>eXpense is a free online expense management tool for business cards, which enables administrators to keep track of transactions on all cards and benefit from a range of predefined reports. Each cardholder can also view their most recent expenses online, if required.</t>
+  </si>
+  <si>
+    <t>Smart Data OnLine</t>
+  </si>
+  <si>
+    <t>Centralised billing via Smart Data OnLine allows you to accurately monitor spending and reliably analyse cost structures, thus making your Mastercard corporate card an indispensable expense management and monitoring tool. Smart Data OnLine is suitable for companies with at least 10 credit cards.</t>
+  </si>
+  <si>
+    <t>Changes to personal data</t>
+  </si>
+  <si>
+    <t>You must provide written notification of any changes to personal data (address, name, etc.).</t>
+  </si>
+  <si>
+    <t>What must I bear in mind when changing my name?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notify us immediately of your change of name. In order to be able to change your name, for security reasons, we need your old and new signature as well as a copy of an official identity card. Please send us the documents by post or by fax to the number +41 58 958 88 85.
+We will be pleased to provide you with the new card with your new name on it. The card will be issued upon receipt of the requested documents. Thank you in advance.
+</t>
+  </si>
+  <si>
+    <t>What must I bear in mind when changing my address?</t>
+  </si>
+  <si>
+    <t>Notify us immediately in writing of your change of address. Please always include the old and the new address on the form, indicating from when the new address is valid.
+If you have a Kantonalbank, Entris Bank, or Bank Cler card, you can notify your bank or your bank advisor directly of your change of address.
+For all other cards, please inform Viseca of the change of address.</t>
+  </si>
+  <si>
+    <t>Change of address” form for private customers::
+https://viseca.ch/viseca/media/content/en/forms/change-address.pdf
+**
+Change of address” form for business customer::
+https://viseca.ch/viseca/media/content/en/forms/change-address-business.pdf</t>
+  </si>
+  <si>
+    <t>Power of attorney</t>
+  </si>
+  <si>
+    <t>You can authorise a third party to act as your power of attorney in dealings with Viseca.</t>
+  </si>
+  <si>
+    <t>What powers will an authorised representative have?</t>
+  </si>
+  <si>
+    <t>An authorised representative can request information about your customer data stored with Viseca, as well as details of invoices, transactions, objections to transactions, authorised and rejected requests, bonus schemes, and your entire correspondence. He/she is also authorised to terminate the card account registered under the name of the principal. If necessary, the authorised representative can have your card blocked and request a replacement card. However, power of attorney excludes the right to effect a transfer of card funds to a given bank account or to apply for a new credit card from the Viseca portfolio on behalf of the principal.
+The authorised representative may perform all actions that the power of attorney empowers them to perform, including for their own benefit and for the benefit of third parties. The authorised representative’s signatures and all other statements and actions are completely binding on the principal. The principal certifies the authenticity of the authorised representative’s signature and accepts that the power of attorney will remain in effect until revoked in writing.
+It should be expressly noted that such power of attorney does not expire but remains effective after the principal dies or loses the capacity to act (Swiss Code of Obligations, Art. 35).</t>
+  </si>
+  <si>
+    <t>For how long can I give power of attorney to a third party (e.g. due to an extended absence abroad)?</t>
+  </si>
+  <si>
+    <t>Fill in the form for granting power of attorney and send it to Viseca.</t>
+  </si>
+  <si>
+    <t>Power of attorney form::
+https://www.viseca.ch/Viseca/media/content/en/forms/power-of-attomey.pdf</t>
+  </si>
+  <si>
+    <t>"one" Registration</t>
+  </si>
+  <si>
+    <t>I don’t have a smartphone. How can I register?</t>
+  </si>
+  <si>
+    <t>You can also use "one" with an ordinary mobile phone. Register here.</t>
+  </si>
+  <si>
+    <t>"one" registration link::
+https://one-digitalservice.ch/request-registration-code/login?lang=en
+**
+Instructions for "one" registration::
+https://one-digitalservice.ch/public/en/one/registration</t>
+  </si>
+  <si>
+    <t>Why don’t I have to accept any terms and conditions when activating the app?</t>
+  </si>
+  <si>
+    <t>You already accepted the Terms of Use for "one" when you first registered for "one", so there is no need to confirm the terms and conditions again in the app.</t>
+  </si>
+  <si>
+    <t>What do I need in order to register for "one"?</t>
+  </si>
+  <si>
+    <t>To register, you need:
+Your personal registration code, which you will receive by post or can request at one-digitalservice.ch/code
+Your complete card number
+a) a PC/tablet with your mobile phone or b) your personal iOS or Android smartphone</t>
+  </si>
+  <si>
+    <t>Instructions for "one" registration::
+https://one-digitalservice.ch/public/en/one/registration</t>
+  </si>
+  <si>
+    <t>Can I open more than one "one" account?</t>
+  </si>
+  <si>
+    <t>Basically, yes. For some products (e.g. prepaid cards, business cards), you will receive a separate registration code and can also register separately. Please note that for each registration a different e-mail address must be provided, i.e. a given e-mail address can only be used once to register. However, the advantage with "one" is that all the cards held under your name, even different products, can be managed in a single "one" account.</t>
+  </si>
+  <si>
+    <t>Why is my mobile number important?</t>
+  </si>
+  <si>
+    <t>If you do not use the "one" app or temporarily have no Internet connection, you can request an SMS code to enter as confirmation (3-D Secure online payment and login).</t>
+  </si>
+  <si>
+    <t>Can I register further cards under the same user name and password?</t>
+  </si>
+  <si>
+    <t>Yes, you can register more than one card.</t>
+  </si>
+  <si>
+    <t>I have more than one card. Do I have to register each card individually?</t>
+  </si>
+  <si>
+    <t>No. At registration, all the cards in this business relationship held under your name are linked to the VisecaOne user account. For other products (e.g. prepaid cards, business cards), you will receive a separate registration code. However, you can still add them to the same user account, either during the registration process or later.</t>
+  </si>
+  <si>
+    <t>On which smartphones can I use the "one" app?</t>
+  </si>
+  <si>
+    <t>"one" Installation</t>
+  </si>
+  <si>
+    <t>The "one" app is available for iPhone as well as on Samsung, LG, HTC and other devices with Android operating systems. All devices must have a functioning SIM card (prepaid or postpaid subscription).</t>
+  </si>
+  <si>
+    <t>I can’t download the app because there isn’t enough memory available.</t>
+  </si>
+  <si>
+    <t>Delete data you do not need to keep (pictures, videos) from your smartphone, or transfer the data to your PC. Ideally, you should do a complete back-up of your smartphone.</t>
+  </si>
+  <si>
+    <t>2I cannot install the app because the default date/time settings are incorrect. What should I do?</t>
+  </si>
+  <si>
+    <t>The date and time settings must correspond with the actual date and time in your country. Please adjust the settings on your smartphone or use the automatic settings.</t>
+  </si>
+  <si>
+    <t>Can I install "one" on multiple smartphones and tablets?</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Can I reactivate the “one” app on any device after an app update?</t>
+  </si>
+  <si>
+    <t>For devices with a SIM card slot
+For devices that support mobile data services (with a SIM card slot), the SIM card from another device can also be used temporarily to reactivate the “one” app. Once reactivated, the “one” app will continue to work even without a SIM card via WLAN/Wi-Fi.
+For devices without a SIM card slot
+For devices that do not support mobile data services (without a SIM card slot), you can register for the “one” app for the first time via WLAN/Wi-Fi. However, it is not possible to reinstall or reactivate the “one” app on the device after, say, the app has been activated on another device in the meantime. For any new installation, a mobile phone number is required so that an SMS can be sent to the device concerned. In this case, the device must have a SIM card slot.</t>
+  </si>
+  <si>
+    <t>How do I install the "one" app on my iOS watch?</t>
+  </si>
+  <si>
+    <t>Simply add the "one" app to your Apple Watch interface via your Watch app, like this:
+Open the Watch app on your iPhone -&gt; General -&gt; Activate app installation. Or you can install the "one" Apple Watch separately as follows: Open the Watch app on your iPhone -&gt; Scroll to the "one" app and select it -&gt; Activate "Display app on Apple Watch". You also have to activate the Apple Watch function in the "one" app under "More" and "App settings".</t>
+  </si>
+  <si>
+    <t>Technical requirements for using "one"(website and app).</t>
+  </si>
+  <si>
+    <t>Operating systems supported by the "one" app
+Apple iPhone
+iOS 15.0 and above
+Apple Watch
+watchOS 4.0 and above
+Android smartphones
+Android 6.0.x and above 
+Browsers supported by the "one" online portal
+"one" supports the latest versions of the following web browsers: Google Chrome, Mozilla Firefox, Microsoft Edge (only Windows), Microsoft Internet Explorer (only Windows) and Apple Safari (only Mac OS). There are likely to be limitations if you are using older versions of these browsers.
+You must also allow cookies and JavaScript to be used in your browser. These two components are normally activated in your browser.</t>
+  </si>
+  <si>
+    <t>"one" Account</t>
+  </si>
+  <si>
+    <t>I have a new e-mail address. How do I notify you of my new e-mail address and/or change my old e-mail address?</t>
+  </si>
+  <si>
+    <t>You can change your e-mail address in your "one" user account or directly in the one app. Remember that your e-mail address also serves as your user name. So, your user name will also change.</t>
+  </si>
+  <si>
+    <t>I have a new mobile number. How do I notify you of the new mobile number and/or change my old number?</t>
+  </si>
+  <si>
+    <t>If you still have access to your old mobile number, you can make the change in the "one" app. If you no longer have access to your old mobile number, you must first reset your "one" account. To do this, sign in at one-digitalservice.ch with your e-mail address and password and then click on "Reset account". Here, you can request a reactivation code to reactivate your "one" account. The reactivation code will be sent to you by post. When you receive it, sign in again as usual with your e-mail address and password and then enter the reactivation code.</t>
+  </si>
+  <si>
+    <t>I have forgotten my password. What should I do?</t>
+  </si>
+  <si>
+    <t>You can reset your password at one-digitalservice.ch.</t>
+  </si>
+  <si>
+    <t>I have forgotten my e-mail address. What can I do?</t>
+  </si>
+  <si>
+    <t>Please call customer services.</t>
+  </si>
+  <si>
+    <t>My card has been blocked. Do I have to register the replacement card for "one"?</t>
+  </si>
+  <si>
+    <t>No, we do that for you. As soon as you receive the replacement card, you can manage it in "one".</t>
+  </si>
+  <si>
+    <t>"one" Use</t>
+  </si>
+  <si>
+    <t>I use my tablet like a smartphone. Can I also use "one" on my tablet with a SIM card?</t>
+  </si>
+  <si>
+    <t>"one" can also be installed on tablets (in smartphone view only). However, we recommend that you only install the app on an iOS or Android smartphone. The app was designed for smartphones and only delivers the best experience when used with a smartphone. Furthermore, it is not possible to use "one" simultaneously on different mobile devices (smartphone/tablet or smartphone/smartphone).</t>
+  </si>
+  <si>
+    <t>Where can I find the terms of use of "one" in the app?</t>
+  </si>
+  <si>
+    <t>Click on the "Legal information" link in the app to view the currently valid terms of use of "one".</t>
+  </si>
+  <si>
+    <t>How can the settings for push notifications be activated?</t>
+  </si>
+  <si>
+    <t>The settings for push notifications can be activated in the app via the "Messaging" menu or under "Messaging" in the "Card" tab.</t>
+  </si>
+  <si>
+    <t>Can I deactivate the "one" app later?</t>
+  </si>
+  <si>
+    <t>Yes. You can deactivate the "one" app in your user account at one-digitalservice.ch as well as in the app settings.</t>
+  </si>
+  <si>
+    <t>Can I reactivate the "one" app again later?</t>
+  </si>
+  <si>
+    <t>Yes. You can activate the "one" app at one-digitalservice.ch in your "one" user account. The app is available for iOS or Android smartphones.</t>
+  </si>
+  <si>
+    <t>What should I do if I mistakenly delete the one app on my smartphone?</t>
+  </si>
+  <si>
+    <t>Download the one app again from the App Store or Play Store and sign on as usual with your one login.</t>
+  </si>
+  <si>
+    <t>Can I also use the "one" app when I am abroad?</t>
+  </si>
+  <si>
+    <t>Yes. Please note that you should ideally use free Wi-Fi access or have a roaming option.</t>
+  </si>
+  <si>
+    <t>How long does the confirmation request remain in the app?</t>
+  </si>
+  <si>
+    <t>The confirmation request remains active for maximum of 300 seconds.</t>
+  </si>
+  <si>
+    <t>As a result of a legal dispute, my mobile service provider has temporarily blocked my number. How can I still confirm online payments (3-D Secure)?</t>
+  </si>
+  <si>
+    <t>Provided you are connected to Wi-Fi, you can make online payments (3-D Secure) as usual with the app, even if your mobile number is temporarily blocked.</t>
+  </si>
+  <si>
+    <t>"one" Transaction</t>
+  </si>
+  <si>
+    <t>What does "reservation" mean?</t>
+  </si>
+  <si>
+    <t>When you make a reservation (a hotel room, for example), the amount of the reservation is blocked on your card and is therefore not available for spending.</t>
+  </si>
+  <si>
+    <t>What is a "provisional transaction"?</t>
+  </si>
+  <si>
+    <t>A transaction is provisional if it has been authorised but not yet settled. The final amount of a provisional transaction may still be subject to adjustment.</t>
+  </si>
+  <si>
+    <t>What is a "booked transaction"?</t>
+  </si>
+  <si>
+    <t>A booked transaction is a transaction for which the settlement has been finalised – including the exchange rate and any applicable charges.</t>
+  </si>
+  <si>
+    <t>What happens if I accidentally accept a payment confirmation in the app although the payment details are incorrect or which I did not actually intend to accept?</t>
+  </si>
+  <si>
+    <t>Confirmations in the app are generally binding. You should therefore always check the request before confirming. It is assumed that payment confirmations and other app-related actions are made by the card holder.</t>
+  </si>
+  <si>
+    <t>If there is no data connection, can I still make online payments (3-D Secure) using the "one" app?</t>
+  </si>
+  <si>
+    <t>No. In situations where you have no data link, you must confirm your online payments by SMS code. You can easily request an SMS code in your browser.</t>
+  </si>
+  <si>
+    <t>Can I also use the SMS method with a smartphone?</t>
+  </si>
+  <si>
+    <t>Basically, yes. However, the app offers you much greater convenience and is easy to use. If you should find yourself without a connection to the Internet, you can request an SMS code to enter as confirmation (3-D Secure online payment and login).</t>
+  </si>
+  <si>
+    <t>How often can I request an SMS code?</t>
+  </si>
+  <si>
+    <t>You can request an SMS code a maximum of two more times.</t>
+  </si>
+  <si>
+    <t>What can I do if I do not agree with a transaction (complaint)?</t>
+  </si>
+  <si>
+    <t>Please check your monthly statement and report any discrepancies in writing within 30 days of the statement date to your card issuer.</t>
+  </si>
+  <si>
+    <t>"one" Security</t>
+  </si>
+  <si>
+    <t>Does fingerprint recognition also work with the "one" app?</t>
+  </si>
+  <si>
+    <t>Yes, you first have to activate fingerprint recognition for your device under Settings -&gt; Fingerprint recognition. Then you can activate "Fingerprint recognition" in the "one" app under "App settings".</t>
+  </si>
+  <si>
+    <t>Does Touch ID also work with the "one" app?</t>
+  </si>
+  <si>
+    <t>Yes, you first have to activate Touch ID for your device (iPhone 6 or above) under Settings -&gt; Touch ID. Then you can activate "Touch ID" in the "one" app under "App settings".</t>
+  </si>
+  <si>
+    <t>What do I have to do if I lose my smartphone or if my smartphone is stolen?</t>
+  </si>
+  <si>
+    <t>Do everything you can to prevent third parties from gaining access to the app. For example, you can block your SIM card and use the "Find my iPhone" or "Android Device Manager" functions to delete data.</t>
+  </si>
+  <si>
+    <t>What do I have to do if my smartphone is hacked?</t>
+  </si>
+  <si>
+    <t>As regards your smartphone, please contact your mobile service provider directly.
+Contact us immediately, so we can block your cards and have them replaced.</t>
+  </si>
+  <si>
+    <t>Does Face ID on Apple devices also work for the “one” app?</t>
+  </si>
+  <si>
+    <t>Yes, you first have to activate Face ID for your device (iPhone 10 and later models) (Settings -&gt; Face ID &amp; Code). Then you can activate “Face ID” in the “one” app under “App settings”.</t>
+  </si>
+  <si>
+    <t>Does face recognition on Android devices also work for the “one” app?</t>
+  </si>
+  <si>
+    <t>Face recognition is supported for Google Pixel devices (from Pixel 4). For other Android devices you can use fingerprint recognition instead.</t>
+  </si>
+  <si>
+    <t>surprize rewards programme</t>
+  </si>
+  <si>
+    <t>What is surprize?</t>
+  </si>
+  <si>
+    <t>With the surprize rewards programme you earn valuable points with every transaction you make worldwide using your eligible payment card.  
+You can view the points you have earned at any time in your personal account and redeem them for attractive rewards at one-digitalservice.ch and in the “one” app. You will also receive personalised offers that let you benefit from special campaigns or order rewards on attractive terms.</t>
+  </si>
+  <si>
+    <t>Who can earn points?</t>
+  </si>
+  <si>
+    <t>All individuals who hold an eligible payment card are automatically included in the rewards programme. surprize points earned by the holder of an additional card are processed through and credited to the surprize account of the primary cardholder.</t>
+  </si>
+  <si>
+    <t>Which partners offer vouchers and which offer non-cash rewards?</t>
+  </si>
+  <si>
+    <t>All surprize partners offer just vouchers or donation opportunities in the rewards shop. surprize supplements the partner offering with non-cash rewards in its own name. These non-cash rewards are managed operationally by “Boost Loyalty”.</t>
+  </si>
+  <si>
+    <t>Does it cost me anything to participate in this rewards programme?</t>
+  </si>
+  <si>
+    <t>The surprize rewards programme does not cost you anything extra.</t>
+  </si>
+  <si>
+    <t>What benefits does surprize offer me?</t>
+  </si>
+  <si>
+    <t>Discover the benefits of surprize:
+Earning:
+- Every time you use your eligible payment card, you earn surprize points (no points are credited for cash withdrawals or for fees charged by the card issuer).
+- Additional points can be earned in special campaigns and contests.
+Redeeming:
+- You can conveniently redeem your points for vouchers or non-cash rewards in the rewards shop. Alternatively, you can also donate points to selected organisations.
+- The conditions for redeeming your points are even more attractive during redemption campaigns.</t>
+  </si>
+  <si>
+    <t>How can I withdraw from the surprize rewards programme, and how long can I continue to use my surprize points for after that?</t>
+  </si>
+  <si>
+    <t>You can withdraw from the surprize rewards programme at any time without serving a notice period. You must inform Viseca in writing. You can continue to redeem the surprize points you have earned for rewards for 90 days after you withdraw. After 90 days, your surprize account will be cancelled. Any remaining surprize points cannot be paid out in cash.</t>
+  </si>
+  <si>
+    <t>What is a surprize partner, and how many of these partners are involved in the programme?</t>
+  </si>
+  <si>
+    <t>surprize partners are companies that offer vouchers at one-digitalservice.ch or in the “one” app. Instead of vouchers, some partners offer you an opportunity to donate your points to a good cause. You can exchange surprize points for the rewards.
+An overview of the current surprize partners can be found online at one-digitalservice.ch/public/en/surprize.</t>
+  </si>
+  <si>
+    <t>surprize points</t>
+  </si>
+  <si>
+    <t>How can I earn points, and how many points do I get when I use my card?</t>
+  </si>
+  <si>
+    <t>You earn surprize points on every purchase you make with your eligible payment card anywhere in the world. surprize points are not credited for cash withdrawals or fees charged by the card issuer.
+It is easy to earn points. Here is how:
+- 1 point per Swiss franc for all purchases made with your card
+- Additional points for special campaigns, contests and other offers
+The points earned are credited to your surprize account. Please note that there may be a lag between the time your transaction is made and the time the points are credited to your surprize account.</t>
+  </si>
+  <si>
+    <t>When are the points I earn credited to my account?</t>
+  </si>
+  <si>
+    <t>The surprize points you earn are credited to your surprize account two days after your purchase, at the earliest.</t>
+  </si>
+  <si>
+    <t>How are surprize points calculated for amounts of less than one franc?</t>
+  </si>
+  <si>
+    <t>The amount of your purchase is rounded down to the next whole franc 
+Example: Purchase for CHF 11.60 = 11 surprize points</t>
+  </si>
+  <si>
+    <t>All individuals who hold an eligible payment card are automatically included in the rewards programme. 
+surprize points earned by the holder of an additional card are processed through and credited to the surprize account of the primary cardholder.</t>
+  </si>
+  <si>
+    <t>Where are the surprize points I earn credited to?</t>
+  </si>
+  <si>
+    <t>You can view your current points balance at any time at one-digitalservice.ch or in the “one” app.
+Please note that surprize points earned with an additional card are also processed through and credited to the surprize account of the primarily cardholder.</t>
+  </si>
+  <si>
+    <t>How can I redeem the points I have earned?</t>
+  </si>
+  <si>
+    <t>You can exchange your points for vouchers or non-cash rewards at any time at one-digitalservice.ch and in the “one” app. You also have the option of donating your surprize points to a selected organisation. You can support a good cause once you have 100 points or more.</t>
+  </si>
+  <si>
+    <t>Can I also redeem points with the additional card I hold?</t>
+  </si>
+  <si>
+    <t>No. Only the primary cardholder is entitled to exchange surprize points for rewards.</t>
+  </si>
+  <si>
+    <t>How long are surprize points valid?</t>
+  </si>
+  <si>
+    <t>surprize points are valid for a nominal period of three years and always expire on 31 December of the year in which they are due to lapse. You can check whether your surprize points are about to expire at any time at one-digitalservice.ch. 
+Example:
+All surprize points earned in 2021 will expire on 31 December 2024. Points earned in January are valid for three years and 11 months. Those earned in December, on the other hand, are valid for three years and a maximum of 31 days.</t>
+  </si>
+  <si>
+    <t>I have more than one primary card registered on “one” and want all the points I earn to be transferred to just one card. What do I need to do?</t>
+  </si>
+  <si>
+    <t>Points can only be transferred between cards visible for the same login. To transfer points earned to a single primary card, visit one-digitalservice.ch and go to the Card tab &gt; surprize rewards programme &gt; Transfer points.</t>
+  </si>
+  <si>
+    <t>What will happen to the points I have earned if I cancel my eligible payment card or withdraw from the surprize rewards programme?</t>
+  </si>
+  <si>
+    <t>In both cases, you can still redeem the surprize points you have earned for rewards online for a period of 90 days after that date. After 90 days, your surprize account will be cancelled. Any remaining surprize points cannot be paid out in cash.</t>
+  </si>
+  <si>
+    <t>Where can I find an overview of the points I have earned/redeemed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To view all the transactions that are eligible for points, log into one-digitalservice.ch and you will find an overview of your points in the surprize tab.  If you receive a paper bill by post, a points overview will be sent to you with your bill once a quarter. </t>
+  </si>
+  <si>
+    <t>surprize rewards</t>
+  </si>
+  <si>
+    <t>Are there different vouchers? If so, what should I look out for?</t>
+  </si>
+  <si>
+    <t>The fundamental difference is between paper vouchers, digital voucher codes and gift cards. Paper vouchers can be redeemed in the branches or stores of the partner concerned and are sent to you by post. Some paper vouchers can also be redeemed online. Digital voucher codes are intended for use in online shops and are sent to you by e-mail.
+Gift cards – depending on the partner – can be redeemed both online and in partner branches or stores and are sent to you by post.
+The detailed descriptions of the individual rewards tell you exactly what type of voucher is on offer and how it will be delivered to you.</t>
+  </si>
+  <si>
+    <t>What guarantees do I have when I purchase a reward?</t>
+  </si>
+  <si>
+    <t>Any reward you purchase will be subject to the guarantees stipulated in the GTCs of the supplier of that reward, which you agree to when you purchase a reward.</t>
+  </si>
+  <si>
+    <t>Who supplies the reward?</t>
+  </si>
+  <si>
+    <t>The supplier of the reward is either a surprize partner or “Boost Loyalty”. You will find the contact information of the supplier of the reward in the order confirmation, which you will receive by e-mail after you place your order.</t>
+  </si>
+  <si>
+    <t>How are rewards delivered?</t>
+  </si>
+  <si>
+    <t>Non-cash rewards and paper vouchers are sent to you by post to your stored billing address. This is done within two weeks of the order date. If necessary, you can stipulate a different delivery address before the order is completed. Rewards and vouchers can only be posted to a delivery address in Switzerland or the Principality of Liechtenstein. Digital voucher codes for online shops are sent to you by e-mail. They are sent to the e-mail address you used to register for “one”. The detailed description of the reward concerned tells you exactly what type of voucher is on offer.</t>
+  </si>
+  <si>
+    <t>Do I have to pay shipping costs?</t>
+  </si>
+  <si>
+    <t>No, there are no shipping costs.</t>
+  </si>
+  <si>
+    <t>How and where can I track the order status of my reward?</t>
+  </si>
+  <si>
+    <t>After you have completed your order, you will receive an order confirmation by e-mail. To enquire about the status of your order, please contact the partner supplying the reward directly. This contact information is provided in the confirmation e-mail.</t>
+  </si>
+  <si>
+    <t>I wish to make a complaint about a product I have purchased (return, guarantee). Who should I contact?</t>
+  </si>
+  <si>
+    <t>Please contact the supplier of the reward directly. This contact information is provided in the e-mail sent to you as the order confirmation.</t>
+  </si>
+  <si>
+    <t>surprize banking package rewards</t>
+  </si>
+  <si>
+    <t>What does the “Banking package rewards” category mean?</t>
+  </si>
+  <si>
+    <t>The “Banking package rewards” category is only available to surprize participants who have an active package solution with a participating bank. These customers can exchange the surprize points they have earned for a credit paid into the personal account associated with the respective package solution.</t>
+  </si>
+  <si>
+    <t>Why can I not see the “Banking package rewards” category?</t>
+  </si>
+  <si>
+    <t>The rewards are only visible if the following criteria are met:
+- You are a surprize participant and have an active package solution with a participating bank
+- You have not yet reached the limit on reward redemptions for the current calendar year
+- In your surprize account, you have selected the eligible card associated with your package solution (this applies to holders of multiple cards attached to the same account)</t>
+  </si>
+  <si>
+    <t>How can I benefit from this reward?</t>
+  </si>
+  <si>
+    <t>If you are a surprize participant who has an active package solution with a participating bank, you can exchange the surprize points you have earned for a credit paid into your personal account. You can choose to exchange 9 000 surprize points for CHF 20 or 18 000 surprize points for CHF 40. Please note that only one of these rewards can be purchased at a time.</t>
+  </si>
+  <si>
+    <t>I want to exchange my surprize points for an account credit. What do I need to do?</t>
+  </si>
+  <si>
+    <t>To benefit from a package reward, visit one-digitalservice.ch or open the “one” app and log in. In the rewards shop, go to the surprize tab where you can view the details of the package reward directly and provide binding confirmation of the purchase of your chosen reward by clicking on the “Order” button. To see the rewards and be able to purchase them, you must have an active package solution with a participating bank, have a sufficient number of points and have not yet reached the limit on the number of account credits for the current calendar year. After you have concluded the purchase, you will receive confirmation by e-mail.</t>
+  </si>
+  <si>
+    <t>How often can I redeem points for a package reward?</t>
+  </si>
+  <si>
+    <t>You can choose between the following two rewards: CHF 20 for 9 000 points and CHF 40 for 18 000 points. In any given calendar year, both rewards may be redeemed a maximum of twice each, but only one reward may be purchased at a time. This means that in a given calendar year you can exchange a maximum of 54 000 points for CHF 120. Once you have purchased one of the rewards twice, it will no longer be displayed in the rewards shop.</t>
+  </si>
+  <si>
+    <t>When are the surprize points I redeem deducted from my account?</t>
+  </si>
+  <si>
+    <t>Immediately after your purchase, the surprize points are deducted and your points total is updated.</t>
+  </si>
+  <si>
+    <t>When is the reward paid into my personal account?</t>
+  </si>
+  <si>
+    <t>The reward is paid into the personal account associated with your bank’s package solution at the beginning of the next month. In your account statement, the credit is designated as “Credit surprize reward – bank name packages”.</t>
+  </si>
+  <si>
+    <t>I have not received the credit in my personal account. Who can I contact?</t>
+  </si>
+  <si>
+    <t>In this case, please contact our Customer Service on +41 58 958 84 00 or at info-surprize@one-digitalservice.ch.</t>
+  </si>
+  <si>
+    <t>surprize Annual card fee redemption</t>
+  </si>
+  <si>
+    <t>How do I redeem the annual fee as a reward?</t>
+  </si>
+  <si>
+    <t>At one-digitalservice.ch, cardholders of participating banks can use surprize points to pay the annual fee due or to receive a refund of the annual fee already paid: half of the annual fee for holders of a Silver credit card; half or all of the annual fee for holders of a Gold credit card. 
+You can redeem the reward for a credit for half or all of the annual fee for the upcoming fee period at any time. If the fee has already been debited, you also have the option of redeeming the reward retroactively within two months of billing (as of the end of the month).</t>
+  </si>
+  <si>
+    <t>How can I use surprize points to settle my annual fee?</t>
+  </si>
+  <si>
+    <t>You can use surprize points to settle your annual card fee as follows. You can manually redeem the annual fee reward in the rewards shop. You can also activate an automatic redemption of the annual fee (“Annual fee subscription”). However, you can have the annual card fee refunded only once per fee period, either through manual redemption in the rewards shop or through subscription. The annual fee reward (manual or subscription) is available to cardholders of participating banks in the rewards shop.
+Manual redemption in the rewards shop
+- Deduction of points: immediately upon ordering the reward
+- Retroactive refund of the annual fee: yes, if the fee has already been debited this is possible within two months of debiting (as of the end of the month).
+One-time activation, then automatic until deactivation or cancellation of the card
+- Deduction of points: upon debiting the annual fee
+- Retroactive refund of the annual fee: no, this is not possible.</t>
+  </si>
+  <si>
+    <t>For which cards can the annual fee be settled using surprize points?</t>
+  </si>
+  <si>
+    <t>The annual fee can be settled using surprize points both as a reward and as a subscription for the following cards (of participating banks):
+- Mastercard Silver and Gold
+- Visa Classic and Gold</t>
+  </si>
+  <si>
+    <t>surprize Data protection</t>
+  </si>
+  <si>
+    <t>Where can I find information about how my data are processed within the surprize rewards programme?</t>
+  </si>
+  <si>
+    <t>It is important to us that your data are handled in a careful, secure and confidential manner. Therefore, Viseca provides transparent information about how your data are processed. Specific information about data processing within the surprize rewards programme can be found in the Privacy Statement and Terms of Use for “one” as well as in our Cookie Policy at one-digitalservice.ch.</t>
+  </si>
+  <si>
+    <t>What purpose do the Conditions for Participating in the surprize Rewards Programme serve?</t>
+  </si>
+  <si>
+    <t>The Conditions for Participating in the surprize Rewards Programme set out the details of the rewards programme in binding terms. These Conditions can be found at one-digitalservice.ch.</t>
+  </si>
+  <si>
+    <t>I do not want to be contacted by e-mail or push notifications on my smartphone in connection with surprize. How can I stop this communication?</t>
+  </si>
+  <si>
+    <t>You can opt out of receiving information via e-mail. To do so, contact us using one of the following options:
+By e-mail with “Stop e-mail information” in the subject line to: info-surprize@one-digitalservice.ch
+By telephone: +41 58 958 84 00
+If you do not want to receive push notifications on your smartphone, you can deactivate this feature in the “one” app.</t>
+  </si>
+  <si>
+    <t>Disputing transactions</t>
+  </si>
+  <si>
+    <t>All credit card transactions are transmitted via Mastercard Worldwide or Visa International and forwarded to Viseca for invoicing. Only after the relevant amount is booked on your credit card are you, the cardholder, able to notify Viseca in writing within 30 days of the invoice date of any transaction that you wish to dispute, and request a refund accordingly.</t>
+  </si>
+  <si>
+    <t>How do I dispute an unjustified debit?</t>
+  </si>
+  <si>
+    <t>If you cannot reach an agreement directly with your contractual partner, you must notify Viseca in writing of any unjustified debit within 30 days of the date of the invoice (or of the card statement, in the case of a debit card), enclosing documentary evidence to this effect (e-mails, letters, details of phone calls, receipts etc.).
+You can find our claim form here</t>
+  </si>
+  <si>
+    <t>How do I dispute debits that occur after I lose my credit card?</t>
+  </si>
+  <si>
+    <t>Fill in a disputed transaction claimform in the event of your card being lost or stolen.</t>
+  </si>
+  <si>
+    <t>Disputed transactdion claim form::
+https://www.viseca.ch/en/customer-service/contact/objection-to-a-transaction</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>You normally receive an invoice each month – or at least every two months in the case of smaller invoice amounts of up to CHF/EUR/USD 50. You can also use "one" to view transactions not yet invoiced. You can pay your invoice via QR payment section or direct debit/Debit Direct.</t>
+  </si>
+  <si>
+    <t>When will I receive the monthly bill for my credit card?</t>
+  </si>
+  <si>
+    <t>You can see the date of your next bill in “one”. The bill date depends on which credit card you possess and which payment method you have chosen (direct debit or payment slip).</t>
+  </si>
+  <si>
+    <t>Why haven’t I received an invoice this month?</t>
+  </si>
+  <si>
+    <t>If your bill amounts to no more than CHF/EUR/USD 50, including credit or repayments, you will only receive a statement once every two months. If the total transactions are below CHF/EUR/USD 70, statements will also be sent once every two months.</t>
+  </si>
+  <si>
+    <t>Why can’t statements be sent by e-mail?</t>
+  </si>
+  <si>
+    <t>Monthly bills are not sent by e-mail for security reasons. As a cardholder, you can only access the “one” digital service and therefore your personal data by completing multiple security steps.</t>
+  </si>
+  <si>
+    <t>Surcharge for card payments</t>
+  </si>
+  <si>
+    <t>The term "surcharge" is used by the international card companies (Mastercard and Visa) to describe an additional fee charged by the merchant on top of the selling price if the customer pays using a credit or debit card (Mastercard, Visa, Maestro and V PAY).</t>
+  </si>
+  <si>
+    <t>How do I recognise a card surcharge? Where is this shown?</t>
+  </si>
+  <si>
+    <t>A card surcharge is directly related to the mode of payment selected. It is added to the purchase price as a fee for your card payment and, as a rule, is shown separately on the merchant’s invoice. However, the surcharge is part of the transaction and is therefore not shown separately on the monthly bill or account statement for your credit or prepaid card or debit transactions.</t>
+  </si>
+  <si>
+    <t>Are card surcharges permitted in Switzerland?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. If a merchant in Switzerland imposes a surcharge in direct connection with the use of a credit card or a debit card as the means of payment, then the merchant is breaching the rules of the international card companies Mastercard and Visa. These prohibit merchants from imposing such surcharges.
+</t>
+  </si>
+  <si>
+    <t>Is imposing a card surcharge prohibited by law?</t>
+  </si>
+  <si>
+    <t>In Switzerland there is no law that prohibits the imposition of a surcharge because of the means of payment used. However, the Federal Competition Commission (WEKO) has ruled that the card companies (Mastercard and Visa), can enforce their licensing rules in Switzerland, and these rules prohibit the imposition of card surcharges by merchants.</t>
+  </si>
+  <si>
+    <t>Who imposes the card surcharge?</t>
+  </si>
+  <si>
+    <t>The card surcharge is added to the selling price by the merchant.</t>
+  </si>
+  <si>
+    <t>Can the card surcharge be claimed back?</t>
+  </si>
+  <si>
+    <t>Yes, the card issuer can claim prohibited surcharges imposed on card payments in Switzerland back from the relevant merchant's payment processor.</t>
+  </si>
+  <si>
+    <t>How do cardholders claim back a card surcharge?</t>
+  </si>
+  <si>
+    <t>The form "Objection concerning a credit card surcharge" is available here. The form must be accompanied by a copy of the invoice or a booking or order confirmation which shows the credit card surcharge. The completed and signed form and accompanying documents should be sent to Viseca Card Services SA within 30 days of the invoice date.</t>
+  </si>
+  <si>
+    <t>What are the requirements for claiming back the card surcharge?</t>
+  </si>
+  <si>
+    <t>The following requirements must be met for a refund claim to be made:
+- The charge that is contested must be an explicitly declared surcharge for payment using a credit card which is not imposed when payment is made by another means.
+- The country in which the transaction was made must be Switzerland.
+- The written objection must be accompanied by a copy of the invoice or a booking or order confirmation which shows the credit card surcharge.
+- The fully completed objection form must be submitted to Viseca Card Services SA within 30 days of the invoice date.</t>
+  </si>
+  <si>
+    <t>What happens to the objection? How is the refund claim made/settled?</t>
+  </si>
+  <si>
+    <t>Viseca Card Services SA will verify the objection, reclaim the amount in question from the merchant’s billing agent and credit the amount back to the cardholder’s account.</t>
+  </si>
+  <si>
+    <t>Will the surcharge always be refunded?</t>
+  </si>
+  <si>
+    <t>If all the requirements are met, the fee/surcharge will be refunded.</t>
+  </si>
+  <si>
+    <t>What fees and surcharges cannot be claimed back?</t>
+  </si>
+  <si>
+    <t>Fees and surcharges that are imposed by the merchants in connection with order processing, dispatch, delivery and service provision and any additional services (e.g. seat reservations with airlines) and are accepted by the cardholder cannot be claimed back.
+Fees imposed by the card issuers (e.g. processing fees for transactions abroad and/or foreign currency transactions) which are shown separately on the monthly statement are also excluded from refund claims
+A refund claim can only be made in the case of transactions relating to card payments on which a prohibited surcharge was imposed by a merchant in Switzerland. Other countries have different provisions which may allow surcharges.</t>
+  </si>
+  <si>
+    <t>Payment (QR-bill)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My card is blocked because the limit has been reached or because I forgot to make a payment. What is the quickest way to make the card usable again? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate your personal QR payment section using our QR generator and transfer the desired amount using the data generated. Your card will be ready to use again within 2 working days of your payment. </t>
+  </si>
+  <si>
+    <t>I want/need to top up my card immediately. How can I do this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always use your personal details from the QR bill. If you do not know this information, generate your personalised QR payment section. These details are required to credit your payment to your card account with Viseca quickly and efficiently (2 working days after the transfer). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have paid my bill. So why is my card blocked?  </t>
+  </si>
+  <si>
+    <t>From 1 October 2022, only the QR IBAN and QR reference number from the new QR bill can be processed. If the data from the old payment slip (ESR) bill (IBAN/reference number) are still stored in payment tools, these can no longer be processed. The payment will be rejected and will not reach Viseca. Update the data now.</t>
+  </si>
+  <si>
+    <t>Where do I get the QR payment section?</t>
+  </si>
+  <si>
+    <t>You can easily create your QR payment section yourself with the QR generator.
+You can order the QR payment section conveniently in your "one" web account under the payment details. If you are not registered in "one", please click here.</t>
+  </si>
+  <si>
+    <t>QR generator::
+https://www.viseca.ch/en/customer-service/contact/qr-bill
+**
+"one" web account::
+https://one-digitalservice.ch/login/login?lang=en
+**
+"one" registration::
+https://www.viseca.ch/en/customer-service/contact/qr-bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do I change my bank details?
+</t>
+  </si>
+  <si>
+    <t>As we are unable to identify the sender of an electronic message, we are not permitted for security reasons to accept any orders by electronic message. In order to continue to benefit from the easy and simple direct debiting system (LSV), we ask you to inform us of the change by means of the form provided for this purpose. The corresponding form can be found under. If your card was issued by a bank, please contact them directly. They will be happy to assist you. Please, be informed that in case your card was issued by the bank, the LSV cannot be processed through a bank account belonging to another bank.</t>
+  </si>
+  <si>
+    <t>Debit Direct (DD)</t>
+  </si>
+  <si>
+    <t>A Postfinance Debit Direct is an automatic payment order (see also bank direct debit). You can authorise Viseca to debit the amounts payable on your invoices automatically from your account – saving you hassle of paying manually. All you need to do is keep an eye on are the amounts that are debited. If there is a discrepancy, you can notify Postfinance within 30 days.</t>
+  </si>
+  <si>
+    <t>How can I pay my credit card invoices using Postfinance Debit Direct?</t>
+  </si>
+  <si>
+    <t>If you have received your credit card directly from Viseca and would like to pay by Debit Direct, we need you to provide us with a completed debit authorisation form. You can obtain this form from the post office. Alternatively, you can request it from our customer services team.
+Phone +41 58 958 84 00 Fax +41 58 958 88 85</t>
+  </si>
+  <si>
+    <t>Bank direct debit</t>
+  </si>
+  <si>
+    <t>A bank direct debit is an automatic bank payment order (see also Postfinance Debit Direct). You can authorise Viseca to debit the amounts payable on your invoices automatically from your account – saving you hassle of paying manually. All you need to do is keep an eye on are the amounts that are debited. If there is a discrepancy, you can notify your bank within 30 days.</t>
+  </si>
+  <si>
+    <t>How can I pay my credit card invoices using bank direct debit?</t>
+  </si>
+  <si>
+    <t>Ask customer services to provide you with our bank direct debit form.
+Phone +41 58 958 84 00 Fax +41 58 958 88 85. If your card was issued by a partner bank, please contact your bank directly.</t>
+  </si>
+  <si>
+    <t>Payment by instalments</t>
+  </si>
+  <si>
+    <t>The payment-by-instalments option allows you to pay your credit card invoices in instalments within an agreed credit limit. The annual interest rate for outstanding invoice amounts is 12%. Interest is only incurred if you actually take advantage of the payment-by-instalments option. Viseca will only activate and confirm the payment-by-instalments option once a successful credit check has been carried out. Credit will not be granted if it leads to excess debt.</t>
+  </si>
+  <si>
+    <t>How do I sign up for the payment-by-instalments option?</t>
+  </si>
+  <si>
+    <t>The payment-by-instalments option is free of charge and will only be activated by Viseca once a successful credit check has been carried out. Please contact customer services if you wish to take advantage of the payment-by-instalments option. Once the necessary documentation has been submitted, the credit check takes around two to three weeks. If you have a co-issued card (i.e. if your card was issued by a partner bank), please contact your bank directly.</t>
+  </si>
+  <si>
+    <t>Further information::
+https://www.viseca.ch/en/services/customer-portal-billing</t>
+  </si>
+  <si>
+    <t>How high must the minimum payment instalment be?</t>
+  </si>
+  <si>
+    <t>The portion of the monthly invoice that remains unpaid, together with your expenditure in
+ the following month, may not exceed the agreed credit limit. The minimum amount that 
+you must pay immediately will appear on each invoice (at least 5% of the invoice amount,
+or CHF/EUR/USD 100). You pay this minimum amount – or a higher amount of your choice – using the QR bill provided.</t>
+  </si>
+  <si>
+    <t>Card account number</t>
+  </si>
+  <si>
+    <t>Any customer can have more than one card account number (e.g. for individual invoices) under which other names are also listed (e.g. for additional cards bearing the name of the customer’s partner). The card account number appears on every invoice or in your "one" account under “Invoices”. It always begins with the numbers “110” and comprises 16 digits in total. You do not need to enter your card account number when logging in to "one". Please note: Your card account number is not the same as your credit card number.</t>
+  </si>
+  <si>
+    <t>Why do I need a card account number?</t>
+  </si>
+  <si>
+    <t>You need a card account number in order to log in to 3-D Secure when paying for an online purchase, and to register for the surprize bonus scheme.</t>
+  </si>
+  <si>
+    <t>Where do I find my card account number?</t>
+  </si>
+  <si>
+    <t>Your card account number appears on every monthly invoice. It is also shown in the "one" portal.</t>
+  </si>
+  <si>
+    <t>Turnover bonus</t>
+  </si>
+  <si>
+    <t>Reduce your annual fee with every franc that you spend with your Platinum, Business or Corporate credit card.</t>
+  </si>
+  <si>
+    <t>By how much can the annual fee be reduced?</t>
+  </si>
+  <si>
+    <t>Private customers
+Visa Platinum: annual turnover of at least CHF/USD 40,000 or EUR 30,000 = half the annual fee in the following year; annual fee over CHF/USD 80,000 or EUR 60,000 or higher = no annual fee in the following year
+Business customers
+Silver/Gold business card: annual turnover of at least CHF 10,000.- or EUR/USD 7,500.- = half the annual fee in the following year; every Gold card with an annual turnover of at least CHF 20,000.- or EUR/USD 15,000.- = no annual fee in the following year</t>
+  </si>
+  <si>
+    <t>What are the prerequisites for turnover bonus?</t>
+  </si>
+  <si>
+    <t>You can take advantage of the turnover bonus if you have a Viseca, Kantonalbank, Entris Bank or Bank Cler Platinum, Business or Corporate Card.</t>
+  </si>
+  <si>
+    <t>What turnover is taken into account for the turnover bonus?</t>
+  </si>
+  <si>
+    <t>Private customers
+For the turnover bonus, credit card spending on the main and additional card(s) (excluding cash withdrawals and fees) is taken into account.
+Business customers
+For the turnover bonus, annual spending (excluding fees) on each individual business and corporate card is taken into account.</t>
+  </si>
+  <si>
+    <t>rewards programmes</t>
+  </si>
+  <si>
+    <t>Your Viseca credit card allows you to benefit from rewards programmes, depending on the card in question.</t>
+  </si>
+  <si>
+    <t>Which rewards schemes can I take part in using my card?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For details of the rewards scheme, please refer to the card overview and the card details.
+</t>
+  </si>
+  <si>
+    <t>Overview of cards for private customers::
+https://www.viseca.ch/en/credit-cards
+**
+Overview of cards for business customers::
+https://www.viseca.ch/en/business/credit-card</t>
+  </si>
+  <si>
+    <t>With my credit card, is it possible to take part in more than one rewards scheme at the same time?</t>
+  </si>
+  <si>
+    <t>No, you can only take part in one rewards scheme at any one time.</t>
+  </si>
+  <si>
+    <t>Company bonus (Gold corporate card)</t>
+  </si>
+  <si>
+    <t>The average annual spending on all Gold corporate cards determines the company bonus. If average annual spending on all cards is at least CHF 10,000 or EUR/USD 7,500 (excluding fees), the annual fee for all cards is reduced by half. If average spending is at least CHF 20,000 or EUR/USD 15,000, all cards are free of charge in the following year.</t>
+  </si>
+  <si>
+    <t>Supercard</t>
+  </si>
+  <si>
+    <t>Supercard is one of the two rewards schemes that you can choose with a Bank Cler credit card. Every time you use your card, you automatically collect Superpoints. These can then be redeemed for attractive rewards. Supercard is the Coop bonus scheme. To take part, you need a Coop Supercard account.</t>
+  </si>
+  <si>
+    <t>What are the prerequisites for collecting Coop Superpoints?</t>
+  </si>
+  <si>
+    <t>You can collect Superpoints with a Bank Cler credit card. To collect Superpoints with your credit card, you need a Coop Supercard account. If you already have a Supercard, you can register your credit card in order to collect Superpoints. If you do not yet have a Supercard, you can apply for one online. Further information</t>
+  </si>
+  <si>
+    <t>How do I collect Coop Superpoints?</t>
+  </si>
+  <si>
+    <t>Every time you make a purchase with your credit card, one Superpoint per CHF 3 spent on your credit card (excluding cash withdrawals and fees) is credited to your Supercard account. If you use your credit card at Coop or partner companies, you even earn double points: once for showing your Supercard and once for paying with your credit card.</t>
+  </si>
+  <si>
+    <t>Further information::
+https://www.supercard.ch/</t>
+  </si>
+  <si>
+    <t>How can redeem Coop Superpoints?</t>
+  </si>
+  <si>
+    <t>You can use any any Coop supermarket “Superbox” and view your Supercard account to find out how many Superpoints you have collected. You can redeem Coop Superpoints at www.supercard.ch or pay with them in selected Coop supermarkets. Please note that the Superpoints earned with your credit card are not immediately credited to your account, but only on a monthly basis at the beginning of every calendar month.</t>
+  </si>
+  <si>
+    <t>Flying Blue</t>
+  </si>
+  <si>
+    <t>Flying Blue is the Flying Blue World Mastercard rewards scheme. For every amount you spend using your credit card, you automatically collect miles. These can then be redeemed for air tickets or other rewards. Flying Blue is the frequent-flyer programme of Air France and KLM. To take part, you need to be a Flying Blue member. Further information</t>
+  </si>
+  <si>
+    <t>What are the prerequisites for collecting Flying Blue miles?</t>
+  </si>
+  <si>
+    <t>You need to own a Flying Blue World Mastercard. To order this credit card, you need to have a Flying Blue membership number. If you have not yet signed up to Flying Blue, you can register free of charge online.</t>
+  </si>
+  <si>
+    <t>Card details::
+https://www.viseca.ch/en/credit-card/flying-blue-world</t>
+  </si>
+  <si>
+    <t>How do I collect Flying Blue miles?</t>
+  </si>
+  <si>
+    <t>Every time you make a purchase with your Flying Blue World Mastercard, one mile per CHF 2 spent on your credit card (excluding cash withdrawals and fees) is credited to your Flying Blue account. You also receive 0.5 miles per CHF 2 spent on your credit card if you use this card to buy an air ticket from Air France or KLM.</t>
+  </si>
+  <si>
+    <t>Further information::
+https://www.klm.com/travel/ch_en/flying_blue/earn_miles/discover_how_it_works/index.htm</t>
+  </si>
+  <si>
+    <t>How can I redeem Flying Blue miles?</t>
+  </si>
+  <si>
+    <t>You can view your Flying Blue account to find out how many miles you have collected These miles can be redeemed for free flights and other attractive rewards. The miles are valid indefinitely if you use your Flying Blue World Mastercard at least once a month. Please note that the miles earned with your Flying Blue World Mastercard are not immediately credited to your account, but only on a monthly basis at the beginning of every calendar month.</t>
+  </si>
+  <si>
+    <t>Hertz</t>
+  </si>
+  <si>
+    <t>As a Viseca credit cardholder, you can save money on hire vehicles from Hertz. If you pay with your credit card, you receive a discount of up to 20% depending on the card.</t>
+  </si>
+  <si>
+    <t>How much discount do I get?</t>
+  </si>
+  <si>
+    <t>Depending on the card, you receive a discount of up to 15% on the standard prepaid rate at Hertz.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +1842,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -252,7 +1870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -260,6 +1878,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,17 +2193,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F71733E-6BAB-429A-A6F9-24E4B9AF2D60}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="1" customWidth="1"/>
     <col min="5" max="5" width="91" style="1" customWidth="1"/>
     <col min="6" max="6" width="56.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -613,385 +2233,4260 @@
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>10002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>10003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>10004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>10005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>10006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>10007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>10008</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>10009</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10010</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>10011</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>10012</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <v>10013</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>10014</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>10015</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>10016</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>10017</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>10018</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>10019</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>10020</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>10021</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>10022</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>10023</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>10024</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>10025</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>10026</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>10027</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>10028</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>10029</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>10030</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>10031</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>10032</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>10033</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>10034</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>10035</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>10036</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>10037</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>10038</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>10039</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>10040</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>10041</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>10042</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>10043</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>10044</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>10045</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>10046</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>10047</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>10048</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>10049</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>10050</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>10051</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>10052</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>10053</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>10054</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>10055</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>10056</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>10057</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>10058</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>10059</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>10060</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>10061</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>10062</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>10063</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>10064</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>10065</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>10066</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>10067</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>10068</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>10069</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>10070</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>10071</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>10072</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>10073</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>10074</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>10075</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>10076</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>10077</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>10078</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>10079</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>10080</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>10081</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>10082</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>10083</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>10084</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>10085</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>10086</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>10087</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>10088</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>10089</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>10090</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>10091</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>10092</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>10093</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>10094</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>10095</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>10096</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>10097</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>10098</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>10099</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>10100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>10101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>10102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>10103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>10104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>10105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>10106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>10107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>10108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>10109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>10110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>10111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>10112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>10113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>10114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>10115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>10116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>10117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>10118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>10119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>10120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>10121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>10122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>10123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>10124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>10125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>10126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>10127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>10128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>10129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>10130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>10131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>10132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>10133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>10134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>10135</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>10136</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>10137</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>10138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>10139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>10140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>10141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>10142</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>10143</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>10144</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>10145</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>10146</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>10147</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>10148</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>10149</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>10150</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>10151</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>10152</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>10153</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>10154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>10155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>10156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>10157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>10158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>10159</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>10160</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>10161</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>10162</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>10163</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>10164</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>10165</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>10166</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>10167</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>10168</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>10169</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>10170</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>10171</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>10172</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>10173</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>10174</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>10175</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>10176</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>10177</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>10178</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>10179</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>10180</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>10181</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>10182</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>10183</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>10184</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>10185</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>10186</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>10187</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>10188</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>10189</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>10190</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>10191</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>10192</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>10193</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>10194</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>10195</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>10196</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>10197</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>10198</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>10199</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>10200</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>10201</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>10202</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>10203</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>10204</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>10205</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>10206</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>10207</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>10208</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>10209</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>10210</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>10211</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>10212</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>10213</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>10214</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>10215</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>10216</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>10217</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>10218</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>10219</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>10220</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>10221</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>10222</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>10223</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>10224</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>10225</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>10226</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>10227</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>10228</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>10229</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>10230</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>10231</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>10232</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>10233</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>10234</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>10235</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>20005</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>20006</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>20007</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>20008</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="D244" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E244" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    </row>
+    <row r="245" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>20009</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="E245" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    </row>
+    <row r="246" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>20010</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D246" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="E246" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    </row>
+    <row r="247" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>20011</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D247" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="E247" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F236" xr:uid="{9F71733E-6BAB-429A-A6F9-24E4B9AF2D60}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/resources/viseca_homepage/QA.xlsx
+++ b/resources/viseca_homepage/QA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\gptsearch\resources\viseca_homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09C9422-E554-4618-8D45-6138664C3108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F757C4-CF50-48E2-A5DE-6ADF7E6E0DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C49F95ED-7AA7-47FE-82D4-C510FE5B6665}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{C49F95ED-7AA7-47FE-82D4-C510FE5B6665}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="573">
   <si>
     <t>Bargeldbezug</t>
   </si>
@@ -1821,6 +1821,151 @@
   </si>
   <si>
     <t>Depending on the card, you receive a discount of up to 15% on the standard prepaid rate at Hertz.</t>
+  </si>
+  <si>
+    <t>How much are the annual fees?</t>
+  </si>
+  <si>
+    <t>The annual fee for the primary card for Siver/Classic is CHF 100
+The annual fee for the primary card for Gold is CHF 200 or EUR/USD 200
+The annual fee for the primary card for Platinum is CHF 550 or EUR/USD 450
+The annual fee for an additional card for Siver/Classic is CHF 25
+The annual fee for an additinoal card for Gold is CHF 50 or EUR/USD 100
+The annual fee for an additional card for Platinum is free of charge</t>
+  </si>
+  <si>
+    <t>The foreign currency processing fee for Silver/Classic cards is 1.75%
+The foreign currency processing fee for Gold cards is 1.75%
+The foreign currency processing fee for Platinum cards is 1.75%</t>
+  </si>
+  <si>
+    <t>How much are processing fees for transactions in foreign currency?</t>
+  </si>
+  <si>
+    <t>How much are the processing fees for transactions in CHF abroad?</t>
+  </si>
+  <si>
+    <t>The processing fee for transactions in CHF abroad for Silver/Classic cards is 1.75%
+The processing fee for transactions in CHF abroad for CHF-Gold cards is 1.75%
+The processing fee for transactions in CHF abroad for CHF-Silver/Classic cards is 1.75%</t>
+  </si>
+  <si>
+    <t>Fees for lottery, betting and casino transactions (excl. Swisslos/Loterie Romande) for Silver/Classic cards are 4% or at least CHF 10.
+Fees for lottery, betting and casino transactions (excl. Swisslos/Loterie Romande) for Gold cards are 4% or at least CHF/EUR/USD 10. 
+There are no fees for lottery, betting and casino transactions for Platinium transactions</t>
+  </si>
+  <si>
+    <t>How much is the gaming comission?</t>
+  </si>
+  <si>
+    <t>Fees for cash withdrawals with Silver/Classic cards are 4% or at least CHF 10.
+Fees for cash withdrawals with Gold cards are 4% or at least CHF/EUR/USD 10.
+Fees for cash withdrawals with Platinum cards at ATMs in Switzerland are 2.5% or at least CHF 5 or EUR/USD 3.50.
+Fees for cash withdrawals with Platinum cards at ATMs abroad are 2.5% or at least CHF 10 or EUR/USD 7.
+Fees for cash withdrawals with Platinum cards at bank counters worldwide are 4% or at least CHF 10 or EUR/USD 7.</t>
+  </si>
+  <si>
+    <t>What is the credit interest rate / interest rate on arrears (annual interest rate)?</t>
+  </si>
+  <si>
+    <t>The credit interest rate/interest rate on arrears is 12% for all cards</t>
+  </si>
+  <si>
+    <t>How much is the commissions on cash withdrawals?</t>
+  </si>
+  <si>
+    <t>How much is the late payment fee?</t>
+  </si>
+  <si>
+    <t>The late payment fee for Silver/Classic cards is CHF 20.
+The late payment fee for Gold and Platinum cards is CHF 20 or EUR/USD 15</t>
+  </si>
+  <si>
+    <t>What is the minimum monthly payment of the total outstanding monthly bill amount?</t>
+  </si>
+  <si>
+    <t>The minimum monthly payment of the total outstanding monthly bill amount for Silver/Classic cards is 5% or at least CHF 100.
+The minimum monthly payment of the total outstanding monthly bill amount for Gold and Platinum cards is 5% or at least CHF/EUR/USD 100.</t>
+  </si>
+  <si>
+    <t>What is the minimum monthly payment of the total outstanding monthly bill amount for payments in three monthly instalments within 90 days?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Silver/Classic cards it is 33% or min. CHF 100 plus outstanding fees and instalments as per GTCs 2.1.
+For Gold and Platinum cards it is 33% or min. CHF/EUR/USD 100 plus outstanding fees and instalments as per GTCs 2.1.
+</t>
+  </si>
+  <si>
+    <t>How much is the paper bill fee?</t>
+  </si>
+  <si>
+    <t>The paper bill fee for Silver/Classic cards is CHF 2 per bill.
+The paper bill fee for Gold cards is CHF/EUR/USD 2 per bill.
+Paper bills for Platinum cards are free of charge</t>
+  </si>
+  <si>
+    <t>How much is the fee for electronic bill/transaction overview?</t>
+  </si>
+  <si>
+    <t>The electronic bill/transaction overview via "one" digial service is free of charge for all cards.</t>
+  </si>
+  <si>
+    <t>How much is the fee for payments made at post office?</t>
+  </si>
+  <si>
+    <t>The fee for payments at post office for Silver/Classic cards is CHF 2.90 per payment.
+The fee for payments at post office for Golc cards is CHF 2.90 per payment, but only possible for CHF cards.
+Payments at post office are free of charge for Platinum cards, but only possible for CHF cards.</t>
+  </si>
+  <si>
+    <t>How much is the fee for PIN code replacement?</t>
+  </si>
+  <si>
+    <t>The PIN code replacement is free of charge for all cards.</t>
+  </si>
+  <si>
+    <t>How much is the fee for a replacement card?</t>
+  </si>
+  <si>
+    <t>How much is the fee to block a card?</t>
+  </si>
+  <si>
+    <t>How much is the fee for special mailings of a bill, card or PIN?</t>
+  </si>
+  <si>
+    <t>Special mailings for bill, card and PIN are free of charge for all cards.</t>
+  </si>
+  <si>
+    <t>The fee for a replacement card for Silver/Classic is CHF 20.
+Replacement cards are free of charge for Gold and Platinum cards.</t>
+  </si>
+  <si>
+    <t>Blocking cards is free of charge for all cards.</t>
+  </si>
+  <si>
+    <t>How much is the fee for reprints (copies) of bill, statement of interest paid etc.?</t>
+  </si>
+  <si>
+    <t>Reprints (copies) of bill, statement of interest paid, etc. are free of charge for all cards.</t>
+  </si>
+  <si>
+    <t>How much is the fee for SMS services</t>
+  </si>
+  <si>
+    <t>The fee for SMS services is CHF 0.50 for Silver/Classic cards.
+The fee for SMS services is CHF 0.50 / EUR 0.30 / USD 0.40 for Gold and Platinum cards.</t>
+  </si>
+  <si>
+    <t>Phone support is free of charge for all cards.</t>
+  </si>
+  <si>
+    <t>How much is the fee for phone support?</t>
+  </si>
+  <si>
+    <t>How much is the comission for reimbursements?</t>
+  </si>
+  <si>
+    <t>Reimbursements / payments to a bank or postal account are free of charge for all cards.</t>
   </si>
 </sst>
 </file>
@@ -2193,11 +2338,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F71733E-6BAB-429A-A6F9-24E4B9AF2D60}">
-  <dimension ref="A1:F247"/>
+  <dimension ref="A1:F267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E250" sqref="E250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6295,193 +6440,533 @@
         <v>532</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>20001</v>
+        <v>10236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>22</v>
+        <v>533</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>29</v>
+        <v>534</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>20002</v>
+        <v>10237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1</v>
+        <v>536</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>20003</v>
+        <v>10238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>5</v>
+        <v>537</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>20004</v>
+        <v>10239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>6</v>
+        <v>540</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>20005</v>
+        <v>10240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>9</v>
+        <v>544</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>8</v>
+        <v>541</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
+        <v>10241</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>10242</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>10243</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>10244</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>10245</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>10246</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>10247</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>10248</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>10249</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>10250</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>10251</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>10252</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>10253</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>10254</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>10255</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>20005</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
         <v>20006</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B262" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C262" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="D262" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E242" s="1" t="s">
+      <c r="E262" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
+    <row r="263" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
         <v>20007</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B263" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="C263" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="D263" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E243" s="1" t="s">
+      <c r="E263" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
+    <row r="264" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
         <v>20008</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B264" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C264" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="D264" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E244" s="1" t="s">
+      <c r="E264" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
+    <row r="265" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
         <v>20009</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B265" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="C265" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="D265" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E245" s="1" t="s">
+      <c r="E265" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
+    <row r="266" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
         <v>20010</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B266" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="C266" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="D266" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E246" s="1" t="s">
+      <c r="E266" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
+    <row r="267" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
         <v>20011</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B267" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="C267" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="D267" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E247" s="1" t="s">
+      <c r="E267" s="1" t="s">
         <v>20</v>
       </c>
     </row>
